--- a/2-managing-workbooks/sales-model.xlsx
+++ b/2-managing-workbooks/sales-model.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$B$11</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>C</t>
   </si>
@@ -32,6 +33,9 @@
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select region: </t>
   </si>
 </sst>
 </file>
@@ -67,8 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +370,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -378,7 +384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -410,7 +416,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -418,7 +424,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -426,7 +432,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -450,7 +456,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -459,13 +465,55 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B11">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="B"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <sheetProtection password="CAB3" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <autoFilter ref="A1:B11"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>"A,B,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>"A,B,C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <f>SUMIF(data!A:A,B1,data!B:B)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter a region" prompt="Value should be alphabetical" sqref="A2">
+      <formula1>"A,B,C"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>